--- a/Question_Set2/Programming skills/Spring.xlsx
+++ b/Question_Set2/Programming skills/Spring.xlsx
@@ -16,23 +16,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your colleague has written a singleton in the service layer of your app and annotated it with @Component.Why would you recommend changing the @Component annotation to @Service?', 'ques_type': 2, 'options': ['Spring won’t do logging if the annotation is not @Service.', '@Component is not a valid Spring annotation.', '@Component can not be a singleton.', 'A service class is better represented by @Service to indicate that it holds business logic.'], 'score': 'A service class is better represented by @Service to indicate that it holds business logic.'}, {'title': 'You want to use JPA to query a Postgres table.Which interface should you implement to let Spring manage the underlying queries?', 'ques_type': 15, 'options': ['Comparable', 'Serializable', 'JpaRepository', 'CrudRepository'], 'score': ['JpaRepository', 'CrudRepository']}, {'title': 'Your RESTful API is giving a cross-origin restricted error when being called through a website.What would you look at first?', 'ques_type': 2, 'options': ['If the Controller is injected and running.', 'If the URI path being called is correct.', 'If the auth session is correct.', 'If the @CrossOrigin annotation or the CORS configuration includes the website it’s being called from.'], 'score': 'If the @CrossOrigin annotation or the CORS configuration includes the website it’s being called from.'}, {'title': 'True or false: When setting up a configuration, if no custom name for a bean is defined, the Bean takes the name of the configuration class.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "Your colleague has written a singleton in the service layer of your app and annotated it with @Component.Why would you recommend changing the @Component annotation to @Service?",
+        "ques_type": 2,
+        "options": [
+            "Spring won\u2019t do logging if the annotation is not @Service.",
+            "@Component is not a valid Spring annotation.",
+            "@Component can not be a singleton.",
+            "A service class is better represented by @Service to indicate that it holds business logic."
+        ],
+        "score": "A service class is better represented by @Service to indicate that it holds business logic."
+    },
+    {
+        "title": "You want to use JPA to query a Postgres table.Which interface should you implement to let Spring manage the underlying queries?",
+        "ques_type": 15,
+        "options": [
+            "Comparable",
+            "Serializable",
+            "JpaRepository",
+            "CrudRepository"
+        ],
+        "score": [
+            "JpaRepository",
+            "CrudRepository"
+        ]
+    },
+    {
+        "title": "Your RESTful API is giving a cross-origin restricted error when being called through a website.What would you look at first?",
+        "ques_type": 2,
+        "options": [
+            "If the Controller is injected and running.",
+            "If the URI path being called is correct.",
+            "If the auth session is correct.",
+            "If the @CrossOrigin annotation or the CORS configuration includes the website it\u2019s being called from."
+        ],
+        "score": "If the @CrossOrigin annotation or the CORS configuration includes the website it\u2019s being called from."
+    },
+    {
+        "title": "True or false: When setting up a configuration, if no custom name for a bean is defined, the Bean takes the name of the configuration class.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +94,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +394,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
